--- a/BackTest/2020-01-16 BackTest MIX.xlsx
+++ b/BackTest/2020-01-16 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2530,14 +2530,10 @@
         <v>-4777715.140923118</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.609</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2567,19 +2563,11 @@
         <v>-4691761.463923118</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.651</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.609</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2611,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2.609</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -4792,14 +4774,10 @@
         <v>-8870817.543867867</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2.584</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4829,19 +4807,11 @@
         <v>-8870817.543867867</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2.584</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4870,19 +4840,15 @@
         <v>-8870817.543867867</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>2.616</v>
       </c>
       <c r="J135" t="n">
-        <v>2.584</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2.616</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4911,13 +4877,13 @@
         <v>-8869893.161467867</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>2.616</v>
       </c>
       <c r="J136" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -4952,13 +4918,13 @@
         <v>-8869893.161467867</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>2.619</v>
       </c>
       <c r="J137" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -4993,13 +4959,13 @@
         <v>-8776910.153967867</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>2.619</v>
       </c>
       <c r="J138" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5034,13 +5000,13 @@
         <v>-8776910.153967867</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>2.646</v>
       </c>
       <c r="J139" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5075,13 +5041,13 @@
         <v>-7805681.898389613</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>2.646</v>
       </c>
       <c r="J140" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5120,7 +5086,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5159,7 +5125,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5198,7 +5164,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5237,7 +5203,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5276,7 +5242,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5315,7 +5281,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5354,7 +5320,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5393,7 +5359,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5432,7 +5398,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5467,13 +5433,11 @@
         <v>-8668056.030959411</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2.741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5508,13 +5472,13 @@
         <v>-8621655.63095941</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>2.73</v>
       </c>
       <c r="J151" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5553,7 +5517,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5592,7 +5556,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5631,7 +5595,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5670,7 +5634,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5709,7 +5673,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5748,7 +5712,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5787,7 +5751,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5826,7 +5790,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5865,7 +5829,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5904,7 +5868,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5943,7 +5907,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5982,7 +5946,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6021,7 +5985,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6060,7 +6024,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6099,7 +6063,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6138,7 +6102,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6177,7 +6141,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6216,7 +6180,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6255,7 +6219,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6290,11 +6254,11 @@
         <v>-8337940.339638606</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6333,7 +6297,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6372,7 +6336,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6411,7 +6375,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6450,7 +6414,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6489,7 +6453,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6528,7 +6492,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6567,7 +6531,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6606,7 +6570,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6645,7 +6609,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6684,7 +6648,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6723,7 +6687,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6762,7 +6726,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6801,7 +6765,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6840,7 +6804,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6879,7 +6843,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6918,7 +6882,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6957,7 +6921,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6996,7 +6960,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7035,7 +6999,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7074,7 +7038,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7113,7 +7077,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7152,7 +7116,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7191,7 +7155,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7230,7 +7194,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7269,7 +7233,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7308,7 +7272,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7347,7 +7311,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7386,7 +7350,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7425,7 +7389,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7464,7 +7428,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7503,7 +7467,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7542,7 +7506,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7581,7 +7545,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7620,7 +7584,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7659,7 +7623,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7698,7 +7662,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7737,7 +7701,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7776,7 +7740,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7815,7 +7779,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7854,7 +7818,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7893,7 +7857,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7932,7 +7896,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7971,7 +7935,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8010,7 +7974,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8049,7 +8013,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8088,7 +8052,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8127,7 +8091,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8166,7 +8130,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8205,7 +8169,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8244,7 +8208,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8283,7 +8247,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8322,7 +8286,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8361,7 +8325,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8400,7 +8364,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8439,7 +8403,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8478,7 +8442,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8517,7 +8481,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8556,7 +8520,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8595,7 +8559,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8634,7 +8598,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8673,7 +8637,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8712,7 +8676,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8751,7 +8715,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8790,7 +8754,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8829,7 +8793,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8868,7 +8832,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8907,7 +8871,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8946,7 +8910,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8985,7 +8949,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9024,7 +8988,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9063,7 +9027,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9102,7 +9066,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9141,7 +9105,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9180,7 +9144,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9219,7 +9183,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9258,7 +9222,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9297,7 +9261,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9336,7 +9300,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9375,7 +9339,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9414,7 +9378,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9453,7 +9417,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9492,7 +9456,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9531,7 +9495,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9570,7 +9534,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9609,7 +9573,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9648,7 +9612,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9687,7 +9651,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9726,7 +9690,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9765,7 +9729,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9804,7 +9768,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9843,7 +9807,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9882,7 +9846,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9921,7 +9885,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9960,7 +9924,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9999,7 +9963,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10038,7 +10002,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10077,7 +10041,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10116,7 +10080,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10155,7 +10119,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10194,7 +10158,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10233,7 +10197,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10272,7 +10236,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10311,7 +10275,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10346,23 +10310,21 @@
         <v>-10252213.21727178</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>2.584</v>
+        <v>2.616</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>1.11109907120743</v>
-      </c>
-      <c r="M275" t="n">
-        <v>1.126315789473684</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10387,11 +10349,17 @@
         <v>-10140887.67837178</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10420,11 +10388,17 @@
         <v>-10125748.92417178</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10453,11 +10427,17 @@
         <v>-10097074.51057178</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10486,11 +10466,17 @@
         <v>-10081375.65897178</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10522,8 +10508,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10552,11 +10544,17 @@
         <v>-10075264.63977177</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10588,8 +10586,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10621,8 +10625,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10654,8 +10664,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +10700,17 @@
         <v>-10007496.81407177</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10720,8 +10742,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10753,8 +10781,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +10820,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +10859,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +10898,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10882,11 +10934,17 @@
         <v>-10511807.14677177</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10915,11 +10973,17 @@
         <v>-10801923.17497177</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10948,11 +11012,17 @@
         <v>-10810013.92057177</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +11054,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +11093,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +11132,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11080,11 +11168,17 @@
         <v>-10752560.91037177</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11113,11 +11207,17 @@
         <v>-10750876.97254794</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11146,11 +11246,17 @@
         <v>-10750876.97254794</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11182,8 +11288,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +11324,17 @@
         <v>-10732728.16474794</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11245,11 +11363,17 @@
         <v>-10958148.87024794</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11278,11 +11402,17 @@
         <v>-10874791.72174794</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +11444,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11344,11 +11480,17 @@
         <v>-10857259.52194794</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11377,11 +11519,17 @@
         <v>-10543949.33854794</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11413,8 +11561,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11446,8 +11600,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11479,8 +11639,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11512,8 +11678,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11545,8 +11717,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11578,8 +11756,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11611,8 +11795,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11644,8 +11834,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11677,8 +11873,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11710,8 +11912,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11743,8 +11951,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11776,8 +11990,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11809,8 +12029,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11842,8 +12068,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11875,8 +12107,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11908,8 +12146,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11938,11 +12182,19 @@
         <v>-11696924.38254794</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2.751</v>
+      </c>
+      <c r="J323" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11971,11 +12223,19 @@
         <v>-11696383.69884793</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>2.792</v>
+      </c>
+      <c r="J324" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12007,8 +12267,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12040,8 +12306,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12070,11 +12342,19 @@
         <v>-11991270.18494793</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J327" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12103,11 +12383,19 @@
         <v>-11971306.52563042</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2.802</v>
+      </c>
+      <c r="J328" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12139,8 +12427,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12172,8 +12466,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12205,8 +12505,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12238,8 +12544,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12271,8 +12583,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12304,8 +12622,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12337,8 +12661,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12370,8 +12700,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12403,8 +12739,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12436,8 +12778,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12469,8 +12817,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12502,8 +12856,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12535,8 +12895,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12568,8 +12934,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12601,8 +12973,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12634,8 +13012,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12667,8 +13051,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12700,8 +13090,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12733,8 +13129,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12766,8 +13168,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12799,8 +13207,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12832,8 +13246,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12865,8 +13285,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12898,8 +13324,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12931,8 +13363,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12964,8 +13402,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12997,8 +13441,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13030,8 +13480,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13063,8 +13519,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13096,8 +13558,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13129,8 +13597,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13162,8 +13636,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13195,8 +13675,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13228,8 +13714,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13261,8 +13753,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13294,8 +13792,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13327,8 +13831,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13360,8 +13870,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13393,8 +13909,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13426,8 +13948,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13459,8 +13987,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13492,8 +14026,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13525,8 +14065,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13558,8 +14104,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13591,8 +14143,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13624,8 +14182,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13657,8 +14221,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13690,8 +14260,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13723,8 +14299,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13756,8 +14338,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13789,8 +14377,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13822,8 +14416,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13855,8 +14455,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13888,8 +14494,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13921,8 +14533,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13954,8 +14572,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13987,8 +14611,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14020,8 +14650,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14053,8 +14689,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14086,8 +14728,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14119,8 +14767,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14152,8 +14806,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14185,8 +14845,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14218,8 +14884,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14251,8 +14923,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14284,8 +14962,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14317,8 +15001,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14350,8 +15040,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14383,8 +15079,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14416,8 +15118,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14449,8 +15157,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14482,8 +15196,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14515,8 +15235,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14548,8 +15274,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14581,8 +15313,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14614,8 +15352,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14647,8 +15391,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14680,8 +15430,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14713,8 +15469,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14746,8 +15508,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14779,8 +15547,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14812,8 +15586,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14845,8 +15625,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14878,8 +15664,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14911,8 +15703,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14944,8 +15742,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14977,8 +15781,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15010,8 +15820,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15043,8 +15859,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15073,11 +15895,17 @@
         <v>-9851825.666241121</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15106,11 +15934,17 @@
         <v>-9846207.141841121</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15139,11 +15973,17 @@
         <v>-9326738.776441121</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15172,11 +16012,17 @@
         <v>-8865142.835934756</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15205,11 +16051,17 @@
         <v>-8865142.835934756</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +16090,17 @@
         <v>-9135457.558034757</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15271,11 +16129,17 @@
         <v>-9084268.670634758</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15304,11 +16168,17 @@
         <v>-9379156.911434758</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15337,11 +16207,17 @@
         <v>-9048245.878334759</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15370,11 +16246,17 @@
         <v>-8982132.394434759</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15406,8 +16288,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15439,8 +16327,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15472,8 +16366,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15505,8 +16405,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15538,8 +16444,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15571,8 +16483,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15604,8 +16522,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15637,8 +16561,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15670,8 +16600,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15703,8 +16639,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15736,8 +16678,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15769,8 +16717,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15802,8 +16756,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15835,8 +16795,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15868,8 +16834,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15901,8 +16873,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15934,8 +16912,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15967,8 +16951,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16000,8 +16990,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16033,8 +17029,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16066,8 +17068,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16099,8 +17107,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16132,8 +17146,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16165,8 +17185,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16198,8 +17224,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16231,8 +17263,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16264,8 +17302,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16297,8 +17341,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16330,8 +17380,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16363,8 +17419,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16396,8 +17458,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16426,11 +17494,17 @@
         <v>758372.2129077921</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +17533,17 @@
         <v>704426.7481077921</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16492,11 +17572,17 @@
         <v>715702.7781077921</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16528,8 +17614,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16558,15 +17650,23 @@
         <v>697281.2583077921</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
+        <v>1.183837920489297</v>
+      </c>
+      <c r="M463" t="n">
+        <v>1.126315789473684</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -16591,7 +17691,7 @@
         <v>765982.0983077921</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16624,7 +17724,7 @@
         <v>755473.876707792</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16657,7 +17757,7 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16690,7 +17790,7 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16723,7 +17823,7 @@
         <v>930529.3333077921</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16756,7 +17856,7 @@
         <v>344241.3096077921</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16789,7 +17889,7 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16822,7 +17922,7 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16855,7 +17955,7 @@
         <v>321324.4286077921</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16888,7 +17988,7 @@
         <v>320324.4286077921</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16921,7 +18021,7 @@
         <v>293722.2474077921</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16954,7 +18054,7 @@
         <v>25274.39150779205</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16987,7 +18087,7 @@
         <v>-482609.1440922079</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17020,7 +18120,7 @@
         <v>-186581.1697922079</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17053,7 +18153,7 @@
         <v>-186581.1697922079</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17086,7 +18186,7 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17119,7 +18219,7 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17152,7 +18252,7 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17185,7 +18285,7 @@
         <v>-1243942.846492208</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17218,7 +18318,7 @@
         <v>-1373327.898092208</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17251,7 +18351,7 @@
         <v>-1366525.752992208</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17284,7 +18384,7 @@
         <v>-1591411.148792208</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17317,7 +18417,7 @@
         <v>-2049857.471292208</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17350,7 +18450,7 @@
         <v>-2424388.681492208</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17383,7 +18483,7 @@
         <v>-2475388.681492208</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17416,7 +18516,7 @@
         <v>-2475388.681492208</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17449,7 +18549,7 @@
         <v>-1788017.489092208</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17482,7 +18582,7 @@
         <v>-1796026.287892208</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17515,7 +18615,7 @@
         <v>-1530812.713792208</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17548,7 +18648,7 @@
         <v>-1225870.073392208</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17581,7 +18681,7 @@
         <v>-1165991.577492208</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17614,7 +18714,7 @@
         <v>-1196878.553292208</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17625,6 +18725,6 @@
       <c r="M495" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MIX.xlsx
+++ b/BackTest/2020-01-16 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
         <v>-1783476.281783373</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4840,14 +4840,10 @@
         <v>-8870817.543867867</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2.616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4877,19 +4873,11 @@
         <v>-8869893.161467867</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4918,19 +4906,11 @@
         <v>-8869893.161467867</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2.619</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4959,19 +4939,11 @@
         <v>-8776910.153967867</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2.619</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5000,19 +4972,11 @@
         <v>-8776910.153967867</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2.646</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5041,19 +5005,11 @@
         <v>-7805681.898389613</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2.646</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5124,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5241,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5280,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5319,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5358,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5397,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5436,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5472,19 +5368,11 @@
         <v>-8621655.63095941</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="J151" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5555,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5594,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5633,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5672,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5750,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5789,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5828,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5867,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5906,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5945,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5984,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6023,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6062,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6101,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6137,17 +5929,11 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6176,17 +5962,11 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6215,17 +5995,11 @@
         <v>-8222023.527938605</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6254,17 +6028,11 @@
         <v>-8337940.339638606</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6293,17 +6061,11 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6332,17 +6094,11 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6371,17 +6127,11 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6410,17 +6160,11 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6449,17 +6193,11 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6488,17 +6226,11 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6527,17 +6259,11 @@
         <v>-8304755.853938606</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6566,17 +6292,11 @@
         <v>-8278721.585738606</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6608,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6647,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6686,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6725,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6764,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6803,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6842,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6881,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6920,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6959,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6998,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7037,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7076,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7115,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7154,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7193,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7232,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7271,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7310,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7349,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7385,17 +6985,11 @@
         <v>-9292981.193162471</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7427,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7466,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7505,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7544,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7583,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7622,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7661,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7697,17 +7249,11 @@
         <v>-9477480.908462472</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7736,17 +7282,11 @@
         <v>-9485480.908462472</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7775,17 +7315,11 @@
         <v>-9465660.580262473</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7817,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7856,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7895,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7934,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7973,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8012,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8051,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8090,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8129,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8168,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8207,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8246,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8285,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8324,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8363,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8402,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8438,17 +7876,15 @@
         <v>-8966798.862410203</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>2.798</v>
+      </c>
       <c r="J227" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2.798</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8481,11 +7917,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2.616</v>
+        <v>2.798</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -8520,11 +7956,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2.616</v>
+        <v>2.798</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -8558,14 +7994,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8597,14 +8027,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8636,14 +8060,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8675,14 +8093,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8714,14 +8126,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8753,14 +8159,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8792,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8831,14 +8225,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8870,14 +8258,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8909,14 +8291,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8948,14 +8324,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8987,14 +8357,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9023,15 +8387,15 @@
         <v>-9396977.567510201</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2.761</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L242" t="n">
@@ -9065,9 +8429,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,9 +8466,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9143,9 +8503,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9182,9 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9221,9 +8577,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9260,9 +8614,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9299,9 +8651,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9338,9 +8688,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9377,9 +8725,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9416,9 +8762,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9455,9 +8799,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9494,9 +8836,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,9 +8873,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9572,9 +8910,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,9 +8947,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,9 +8984,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9689,9 +9021,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9728,9 +9058,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9767,9 +9095,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9806,9 +9132,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9845,9 +9169,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,9 +9206,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,9 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9962,9 +9280,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10001,9 +9317,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10040,9 +9354,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10079,9 +9391,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10118,9 +9428,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10157,9 +9465,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10196,9 +9502,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10235,9 +9539,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10274,9 +9576,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10313,9 +9613,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10352,9 +9650,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10391,9 +9687,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10430,9 +9724,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10469,9 +9761,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10508,9 +9798,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10547,9 +9835,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,9 +9872,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10625,9 +9909,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10664,9 +9946,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10703,9 +9983,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10742,9 +10020,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10781,9 +10057,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10820,9 +10094,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10859,9 +10131,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10898,9 +10168,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10937,9 +10205,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10976,9 +10242,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11015,9 +10279,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11054,9 +10316,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11093,9 +10353,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11132,9 +10390,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11171,9 +10427,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11210,9 +10464,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11249,9 +10501,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11288,9 +10538,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11327,9 +10575,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11366,9 +10612,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11405,9 +10649,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11444,9 +10686,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,9 +10723,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11522,9 +10760,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11561,9 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11600,9 +10834,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11639,9 +10871,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,9 +10908,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11717,9 +10945,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11756,9 +10982,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,9 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11834,9 +11056,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,9 +11093,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11912,9 +11130,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11951,9 +11167,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,9 +11204,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12029,9 +11241,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,9 +11278,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12107,9 +11315,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,9 +11352,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,14 +11386,10 @@
         <v>-11696924.38254794</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>2.751</v>
-      </c>
-      <c r="J323" t="n">
-        <v>2.616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12223,14 +11423,10 @@
         <v>-11696383.69884793</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>2.792</v>
-      </c>
-      <c r="J324" t="n">
-        <v>2.616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12267,9 +11463,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12306,9 +11500,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,14 +11534,10 @@
         <v>-11991270.18494793</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J327" t="n">
-        <v>2.616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,9 +11576,7 @@
       <c r="I328" t="n">
         <v>2.802</v>
       </c>
-      <c r="J328" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12424,12 +11610,12 @@
         <v>-11923570.82563042</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12463,12 +11649,12 @@
         <v>-11980568.07113042</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12502,12 +11688,12 @@
         <v>-11978650.87833042</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2.793</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12541,12 +11727,12 @@
         <v>-11976832.87833042</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2.803</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12580,12 +11766,12 @@
         <v>-12034954.85143042</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12619,12 +11805,12 @@
         <v>-12073372.54143042</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12658,12 +11844,12 @@
         <v>-12073372.54143042</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>2.793</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12697,12 +11883,12 @@
         <v>-12061370.68543042</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>2.793</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12736,12 +11922,12 @@
         <v>-12060162.79043042</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12775,12 +11961,12 @@
         <v>-12070162.79043042</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12814,12 +12000,12 @@
         <v>-12166473.32313042</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12853,12 +12039,12 @@
         <v>-11265891.53613042</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12892,12 +12078,12 @@
         <v>-11289332.98953042</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12931,12 +12117,12 @@
         <v>-11270413.68953042</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>2.792</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12970,12 +12156,12 @@
         <v>-11270413.68953042</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13009,12 +12195,12 @@
         <v>-11270413.68953042</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13048,12 +12234,12 @@
         <v>-11262977.66083042</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13087,12 +12273,12 @@
         <v>-11262977.66083042</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13126,12 +12312,12 @@
         <v>-11261840.78683042</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13165,12 +12351,12 @@
         <v>-11261840.78683042</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13207,9 +12393,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13243,12 +12427,12 @@
         <v>-11669256.41473042</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13282,12 +12466,12 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13321,12 +12505,12 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2.798</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13360,12 +12544,12 @@
         <v>-11671073.49543042</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2.798</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13399,12 +12583,12 @@
         <v>-11650033.49543042</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13438,12 +12622,12 @@
         <v>-11506111.53703042</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2.616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13480,9 +12664,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13519,9 +12701,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13558,9 +12738,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13597,9 +12775,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13636,9 +12812,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13675,9 +12849,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13714,9 +12886,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13753,9 +12923,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13792,9 +12960,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13831,9 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13870,9 +13034,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13909,9 +13071,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13948,9 +13108,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13987,9 +13145,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14026,9 +13182,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14065,9 +13219,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14104,9 +13256,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14143,9 +13293,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14182,9 +13330,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14221,9 +13367,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14260,9 +13404,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14299,9 +13441,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14338,9 +13478,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14377,9 +13515,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14416,9 +13552,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14455,9 +13589,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14494,9 +13626,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14533,9 +13663,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14572,9 +13700,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14611,9 +13737,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14650,9 +13774,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14689,9 +13811,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14728,9 +13848,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14767,9 +13885,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14806,9 +13922,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14845,9 +13959,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14884,9 +13996,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14923,9 +14033,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14962,9 +14070,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15001,9 +14107,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15040,9 +14144,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15079,9 +14181,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15118,9 +14218,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15157,9 +14255,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,9 +14292,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15235,9 +14329,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15274,9 +14366,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15313,9 +14403,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15352,9 +14440,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15391,9 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15430,9 +14514,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15469,9 +14551,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15508,9 +14588,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15547,9 +14625,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15586,9 +14662,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15625,9 +14699,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15664,9 +14736,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15703,9 +14773,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15742,9 +14810,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15781,9 +14847,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15820,9 +14884,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,9 +14921,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15898,9 +14958,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15937,9 +14995,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15976,9 +15032,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16015,9 +15069,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16054,9 +15106,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16093,9 +15143,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16132,9 +15180,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16171,9 +15217,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16210,9 +15254,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16249,9 +15291,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16288,9 +15328,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16327,9 +15365,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16366,9 +15402,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16405,9 +15439,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16444,9 +15476,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16483,9 +15513,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16522,9 +15550,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16561,9 +15587,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16600,9 +15624,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16639,9 +15661,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16678,9 +15698,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16717,9 +15735,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16756,9 +15772,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16795,9 +15809,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16834,9 +15846,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16873,9 +15883,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16912,9 +15920,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16951,9 +15957,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16990,9 +15994,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17029,9 +16031,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17068,9 +16068,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17107,9 +16105,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17146,9 +16142,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17185,9 +16179,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17224,9 +16216,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17263,9 +16253,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17302,9 +16290,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17341,9 +16327,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17380,9 +16364,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,9 +16401,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,9 +16438,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,9 +16475,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17536,9 +16512,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17575,9 +16549,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17614,9 +16586,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17650,23 +16620,19 @@
         <v>697281.2583077921</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2.616</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L463" t="n">
-        <v>1.183837920489297</v>
-      </c>
-      <c r="M463" t="n">
-        <v>1.126315789473684</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -17695,7 +16661,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17724,11 +16694,15 @@
         <v>755473.876707792</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17757,11 +16731,15 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17790,11 +16768,15 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17823,11 +16805,15 @@
         <v>930529.3333077921</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17856,11 +16842,15 @@
         <v>344241.3096077921</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17889,11 +16879,15 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17922,11 +16916,15 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17955,11 +16953,15 @@
         <v>321324.4286077921</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17988,11 +16990,15 @@
         <v>320324.4286077921</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18021,11 +17027,15 @@
         <v>293722.2474077921</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18054,11 +17064,15 @@
         <v>25274.39150779205</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18087,11 +17101,15 @@
         <v>-482609.1440922079</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18120,11 +17138,15 @@
         <v>-186581.1697922079</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18153,11 +17175,15 @@
         <v>-186581.1697922079</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18186,11 +17212,15 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18219,11 +17249,15 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18252,11 +17286,15 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18285,11 +17323,15 @@
         <v>-1243942.846492208</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18318,11 +17360,15 @@
         <v>-1373327.898092208</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18351,11 +17397,15 @@
         <v>-1366525.752992208</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18384,11 +17434,15 @@
         <v>-1591411.148792208</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18417,11 +17471,15 @@
         <v>-2049857.471292208</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18450,11 +17508,15 @@
         <v>-2424388.681492208</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18483,11 +17545,15 @@
         <v>-2475388.681492208</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18516,11 +17582,15 @@
         <v>-2475388.681492208</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18549,11 +17619,15 @@
         <v>-1788017.489092208</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18582,11 +17656,15 @@
         <v>-1796026.287892208</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18615,11 +17693,15 @@
         <v>-1530812.713792208</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18648,11 +17730,15 @@
         <v>-1225870.073392208</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18681,11 +17767,15 @@
         <v>-1165991.577492208</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18714,17 +17804,21 @@
         <v>-1196878.553292208</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
       <c r="M495" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest MIX.xlsx
+++ b/BackTest/2020-01-16 BackTest MIX.xlsx
@@ -2893,7 +2893,7 @@
         <v>-1783476.281783373</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3852716.786467866</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-8221004.627838605</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-8222023.527938605</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-8337940.339638606</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-8260510.339638606</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-8304755.853938606</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-8278721.585738606</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,10 +6325,14 @@
         <v>-8278721.585738606</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6361,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6557,19 @@
         <v>-8817948.231038606</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6718,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +6757,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +6796,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +6913,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +6952,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +6991,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7069,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7105,17 @@
         <v>-9292981.193162471</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7186,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7342,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7381,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7417,17 @@
         <v>-9477480.908462472</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7456,17 @@
         <v>-9485480.908462472</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7495,17 @@
         <v>-9465660.580262473</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7615,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7693,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7810,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +7849,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8122,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,15 +8158,17 @@
         <v>-8966798.862410203</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>2.798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>2.798</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+        <v>2.914</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7917,11 +8201,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2.798</v>
+        <v>2.914</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -7956,11 +8240,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2.798</v>
+        <v>2.914</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -7994,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8027,8 +8317,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8060,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8093,8 +8395,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8126,8 +8434,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8159,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8225,8 +8551,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8258,8 +8590,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8291,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8324,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8357,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8387,15 +8743,15 @@
         <v>-9396977.567510201</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>2.761</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
@@ -8429,7 +8785,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8466,7 +8824,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8503,7 +8863,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8540,7 +8902,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8577,7 +8941,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8614,7 +8980,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8651,7 +9019,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,7 +9058,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8725,7 +9097,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8762,7 +9136,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,7 +9175,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8836,7 +9214,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,7 +9253,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,7 +9292,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8984,7 +9370,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9021,7 +9409,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9058,7 +9448,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9095,7 +9487,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9132,7 +9526,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9169,7 +9565,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9206,7 +9604,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9243,7 +9643,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9280,7 +9682,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9317,7 +9721,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9354,7 +9760,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9391,7 +9799,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9428,7 +9838,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9465,7 +9877,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9502,7 +9916,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9539,7 +9955,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9576,7 +9994,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9613,7 +10033,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,7 +10072,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,7 +10111,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9724,7 +10150,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9761,7 +10189,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9798,7 +10228,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9835,7 +10267,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9872,7 +10306,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9909,7 +10345,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9946,7 +10384,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9983,7 +10423,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10020,7 +10462,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10057,7 +10501,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10094,7 +10540,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10131,7 +10579,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10168,7 +10618,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10205,7 +10657,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10239,10 +10693,14 @@
         <v>-10801923.17497177</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="J292" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10276,10 +10734,14 @@
         <v>-10810013.92057177</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="J293" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10313,10 +10775,14 @@
         <v>-10810013.92057177</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J294" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,10 +10816,14 @@
         <v>-10762932.80707177</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J295" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10387,10 +10857,14 @@
         <v>-10773968.05537177</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J296" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10424,10 +10898,14 @@
         <v>-10752560.91037177</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2.867</v>
+      </c>
+      <c r="J297" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10461,10 +10939,14 @@
         <v>-10750876.97254794</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J298" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,10 +10980,14 @@
         <v>-10750876.97254794</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J299" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,10 +11021,14 @@
         <v>-10732728.16474794</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J300" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10572,10 +11062,14 @@
         <v>-10732728.16474794</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J301" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,10 +11103,14 @@
         <v>-10958148.87024794</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J302" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10646,10 +11144,14 @@
         <v>-10874791.72174794</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="J303" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10683,10 +11185,14 @@
         <v>-10874791.72174794</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J304" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10720,10 +11226,14 @@
         <v>-10857259.52194794</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J305" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10757,10 +11267,14 @@
         <v>-10543949.33854794</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2.903</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10794,10 +11308,14 @@
         <v>-10552403.42644794</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J307" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10831,10 +11349,14 @@
         <v>-10552038.08214794</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="J308" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10868,10 +11390,14 @@
         <v>-10571396.57934794</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J309" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10905,10 +11431,14 @@
         <v>-10550433.58204794</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J310" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10942,10 +11472,14 @@
         <v>-10550433.58204794</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J311" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10979,10 +11513,14 @@
         <v>-10550433.58204794</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11016,10 +11554,14 @@
         <v>-10628475.36534794</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J313" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11053,10 +11595,14 @@
         <v>-10236475.36534794</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2.867</v>
+      </c>
+      <c r="J314" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11090,10 +11636,14 @@
         <v>-10190475.36534794</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="J315" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11127,10 +11677,14 @@
         <v>-10259733.15074794</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="J316" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11164,10 +11718,14 @@
         <v>-10901155.02574794</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J317" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,10 +11759,14 @@
         <v>-10936385.02574794</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="J318" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11238,10 +11800,14 @@
         <v>-10936385.02574794</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J319" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11275,10 +11841,14 @@
         <v>-11434774.42504794</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J320" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11312,10 +11882,14 @@
         <v>-11401011.65284794</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="J321" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11349,10 +11923,14 @@
         <v>-11701011.65284794</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J322" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11386,10 +11964,14 @@
         <v>-11696924.38254794</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2.751</v>
+      </c>
+      <c r="J323" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11423,10 +12005,14 @@
         <v>-11696383.69884793</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>2.792</v>
+      </c>
+      <c r="J324" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,10 +12046,14 @@
         <v>-11719263.69884793</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J325" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11497,10 +12087,14 @@
         <v>-11719063.69884793</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J326" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11534,10 +12128,14 @@
         <v>-11991270.18494793</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J327" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11576,7 +12174,9 @@
       <c r="I328" t="n">
         <v>2.802</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11615,7 +12215,9 @@
       <c r="I329" t="n">
         <v>2.849</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11654,7 +12256,9 @@
       <c r="I330" t="n">
         <v>2.85</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11693,7 +12297,9 @@
       <c r="I331" t="n">
         <v>2.793</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,7 +12338,9 @@
       <c r="I332" t="n">
         <v>2.803</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11771,7 +12379,9 @@
       <c r="I333" t="n">
         <v>2.84</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11810,7 +12420,9 @@
       <c r="I334" t="n">
         <v>2.828</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11849,7 +12461,9 @@
       <c r="I335" t="n">
         <v>2.793</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11888,7 +12502,9 @@
       <c r="I336" t="n">
         <v>2.793</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,7 +12543,9 @@
       <c r="I337" t="n">
         <v>2.8</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11966,7 +12584,9 @@
       <c r="I338" t="n">
         <v>2.828</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12005,7 +12625,9 @@
       <c r="I339" t="n">
         <v>2.8</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12044,7 +12666,9 @@
       <c r="I340" t="n">
         <v>2.796</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,7 +12707,9 @@
       <c r="I341" t="n">
         <v>2.828</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12122,7 +12748,9 @@
       <c r="I342" t="n">
         <v>2.792</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12161,7 +12789,9 @@
       <c r="I343" t="n">
         <v>2.818</v>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12200,7 +12830,9 @@
       <c r="I344" t="n">
         <v>2.818</v>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12239,7 +12871,9 @@
       <c r="I345" t="n">
         <v>2.818</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12278,7 +12912,9 @@
       <c r="I346" t="n">
         <v>2.82</v>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12317,7 +12953,9 @@
       <c r="I347" t="n">
         <v>2.82</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12356,7 +12994,9 @@
       <c r="I348" t="n">
         <v>2.828</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12393,7 +13033,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,12 +13069,12 @@
         <v>-11669256.41473042</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,12 +13108,12 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>2.818</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12505,12 +13147,12 @@
         <v>-11682316.62433042</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>2.798</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12544,12 +13186,12 @@
         <v>-11671073.49543042</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>2.798</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12583,12 +13225,12 @@
         <v>-11650033.49543042</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12627,7 +13269,9 @@
       <c r="I355" t="n">
         <v>2.81</v>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12664,7 +13308,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12701,7 +13347,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12738,7 +13386,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12775,7 +13425,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12812,7 +13464,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12849,7 +13503,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12886,7 +13542,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,7 +13581,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12960,7 +13620,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12997,7 +13659,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13034,7 +13698,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13071,7 +13737,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13108,7 +13776,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13145,7 +13815,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13179,10 +13851,14 @@
         <v>-11390974.35633042</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J370" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13216,10 +13892,14 @@
         <v>-11582571.53733042</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J371" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13253,10 +13933,14 @@
         <v>-11389055.87473042</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J372" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13290,10 +13974,14 @@
         <v>-11660430.94973042</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2.822</v>
+      </c>
+      <c r="J373" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13327,10 +14015,14 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="J374" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13364,10 +14056,14 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J375" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13401,10 +14097,14 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J376" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13438,10 +14138,14 @@
         <v>-11557410.83533042</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J377" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13475,10 +14179,14 @@
         <v>-11604301.78403042</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J378" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13512,10 +14220,14 @@
         <v>-11592121.78403042</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2.821</v>
+      </c>
+      <c r="J379" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13549,10 +14261,14 @@
         <v>-11698559.67333042</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="J380" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13586,10 +14302,14 @@
         <v>-11944229.69833042</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2.812</v>
+      </c>
+      <c r="J381" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13623,10 +14343,14 @@
         <v>-11912278.04483042</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="J382" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13660,10 +14384,14 @@
         <v>-11674399.92530609</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2.824</v>
+      </c>
+      <c r="J383" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13697,10 +14425,14 @@
         <v>-11674219.30690609</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="J384" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13734,10 +14466,14 @@
         <v>-11674219.30690609</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J385" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13771,10 +14507,14 @@
         <v>-11674219.30690609</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J386" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13808,10 +14548,14 @@
         <v>-11679219.30690609</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J387" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13845,10 +14589,14 @@
         <v>-11679038.49670609</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2.831</v>
+      </c>
+      <c r="J388" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13882,10 +14630,14 @@
         <v>-11679462.37520609</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="J389" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13919,10 +14671,14 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2.831</v>
+      </c>
+      <c r="J390" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13956,10 +14712,14 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J391" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13993,10 +14753,14 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J392" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14030,10 +14794,14 @@
         <v>-11660107.93602361</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J393" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14067,10 +14835,14 @@
         <v>-12055869.87964112</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J394" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14104,10 +14876,14 @@
         <v>-12055463.34564112</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="J395" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14141,10 +14917,14 @@
         <v>-12186064.21414112</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J396" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14178,10 +14958,14 @@
         <v>-12196669.74314112</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2.876</v>
+      </c>
+      <c r="J397" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,10 +14999,14 @@
         <v>-11797634.81444112</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J398" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14252,10 +15040,14 @@
         <v>-11797456.11954112</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2.876</v>
+      </c>
+      <c r="J399" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14292,7 +15084,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14329,7 +15123,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14363,10 +15159,14 @@
         <v>-11682007.95814112</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J402" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14400,10 +15200,14 @@
         <v>-11681818.41454112</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="J403" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14437,10 +15241,14 @@
         <v>-11681818.41454112</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J404" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14474,10 +15282,14 @@
         <v>-11681818.41454112</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J405" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14511,10 +15323,14 @@
         <v>-11531917.57754112</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="J406" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14548,10 +15364,14 @@
         <v>-11520338.21304112</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J407" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14585,10 +15405,14 @@
         <v>-11505423.92284112</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2.881</v>
+      </c>
+      <c r="J408" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14622,10 +15446,14 @@
         <v>-11501521.32514112</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="J409" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14659,10 +15487,14 @@
         <v>-11478809.86962745</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="J410" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14696,10 +15528,14 @@
         <v>-11478809.86962745</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="J411" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14733,10 +15569,14 @@
         <v>-11475427.01014112</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="J412" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14770,10 +15610,14 @@
         <v>-11334505.68964112</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J413" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14807,10 +15651,14 @@
         <v>-11316346.23354112</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14844,10 +15692,14 @@
         <v>-11298647.54414112</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="J415" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14881,10 +15733,14 @@
         <v>-11284929.16884112</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2.897</v>
+      </c>
+      <c r="J416" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14918,10 +15774,14 @@
         <v>-11266333.99824112</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="J417" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14955,10 +15815,14 @@
         <v>-9851825.666241121</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="J418" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14992,10 +15856,14 @@
         <v>-9846207.141841121</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J419" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15029,10 +15897,14 @@
         <v>-9326738.776441121</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="J420" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15066,10 +15938,14 @@
         <v>-8865142.835934756</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J421" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15103,10 +15979,14 @@
         <v>-8865142.835934756</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="J422" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15143,7 +16023,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15180,7 +16062,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15217,7 +16101,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15254,7 +16140,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15291,7 +16179,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15328,7 +16218,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15365,7 +16257,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,7 +16296,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15439,7 +16335,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15476,7 +16374,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15513,7 +16413,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15550,7 +16452,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15587,7 +16491,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15624,7 +16530,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15661,7 +16569,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15698,7 +16608,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15735,7 +16647,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15772,7 +16686,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15809,7 +16725,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15846,7 +16764,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15883,7 +16803,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15920,7 +16842,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15957,7 +16881,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15994,7 +16920,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16031,7 +16959,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16068,7 +16998,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16105,7 +17037,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16142,7 +17076,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16179,7 +17115,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16216,7 +17154,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16253,7 +17193,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16290,7 +17232,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16327,7 +17271,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16364,7 +17310,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16401,7 +17349,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16435,19 +17385,23 @@
         <v>1057889.620707792</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2.914</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
+        <v>1.096578586135896</v>
+      </c>
+      <c r="M458" t="n">
+        <v>1.162183235867446</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -16472,15 +17426,11 @@
         <v>758372.2129077921</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16509,15 +17459,11 @@
         <v>704426.7481077921</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16546,15 +17492,11 @@
         <v>715702.7781077921</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16583,15 +17525,11 @@
         <v>715702.7781077921</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16620,15 +17558,11 @@
         <v>697281.2583077921</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16661,11 +17595,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16698,11 +17628,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16731,15 +17657,11 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16768,15 +17690,11 @@
         <v>750543.5367077921</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16805,15 +17723,11 @@
         <v>930529.3333077921</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16842,15 +17756,11 @@
         <v>344241.3096077921</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16879,15 +17789,11 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16916,15 +17822,11 @@
         <v>352258.5496077921</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16953,15 +17855,11 @@
         <v>321324.4286077921</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16990,15 +17888,11 @@
         <v>320324.4286077921</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17027,15 +17921,11 @@
         <v>293722.2474077921</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17068,11 +17958,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17105,11 +17991,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17142,11 +18024,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17179,11 +18057,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17212,15 +18086,11 @@
         <v>-1179372.731692208</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17253,11 +18123,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17290,11 +18156,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17327,11 +18189,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17364,11 +18222,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17401,11 +18255,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17438,11 +18288,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17475,11 +18321,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +18354,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17549,11 +18387,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17586,11 +18420,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17623,11 +18453,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17660,11 +18486,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17697,11 +18519,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17734,11 +18552,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17771,11 +18585,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17808,11 +18618,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
